--- a/line_list.xlsx
+++ b/line_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="8220"/>
+    <workbookView windowWidth="19560" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>IP Address</t>
   </si>
@@ -38,148 +38,16 @@
     <t>LineName</t>
   </si>
   <si>
-    <t>172.16.128.1</t>
+    <t>1.1.1.1</t>
   </si>
   <si>
-    <t>RAS-BCP</t>
+    <t>MainLine1</t>
   </si>
   <si>
-    <t>172.16.130.254</t>
+    <t>8.8.8.8</t>
   </si>
   <si>
-    <t>RAS-Royal-2</t>
-  </si>
-  <si>
-    <t>172.16.132.254</t>
-  </si>
-  <si>
-    <t>RAS-Royal-4</t>
-  </si>
-  <si>
-    <t>172.16.134.254</t>
-  </si>
-  <si>
-    <t>RAS-Medan</t>
-  </si>
-  <si>
-    <t>172.16.136.254</t>
-  </si>
-  <si>
-    <t>CAM-Palembang</t>
-  </si>
-  <si>
-    <t>172.16.135.254</t>
-  </si>
-  <si>
-    <t>CAM-Pekanbaru</t>
-  </si>
-  <si>
-    <t>172.16.137.254</t>
-  </si>
-  <si>
-    <t>CAM-Lampung</t>
-  </si>
-  <si>
-    <t>172.16.138.254</t>
-  </si>
-  <si>
-    <t>ACA-Foam</t>
-  </si>
-  <si>
-    <t>172.16.149.254</t>
-  </si>
-  <si>
-    <t>ACA-Mattress</t>
-  </si>
-  <si>
-    <t>172.16.148.254</t>
-  </si>
-  <si>
-    <t>CAM-Jayanti</t>
-  </si>
-  <si>
-    <t>172.16.140.254</t>
-  </si>
-  <si>
-    <t>CAM-Meruya</t>
-  </si>
-  <si>
-    <t>172.16.141.254</t>
-  </si>
-  <si>
-    <t>RAS-Narogong</t>
-  </si>
-  <si>
-    <t>172.16.142.254</t>
-  </si>
-  <si>
-    <t>CAM-Sukabumi</t>
-  </si>
-  <si>
-    <t>172.16.143.254</t>
-  </si>
-  <si>
-    <t>CAM-Cikampek</t>
-  </si>
-  <si>
-    <t>172.16.144.254</t>
-  </si>
-  <si>
-    <t>CAM-Tasik</t>
-  </si>
-  <si>
-    <t>172.16.133.1</t>
-  </si>
-  <si>
-    <t>CAM-Cirebon</t>
-  </si>
-  <si>
-    <t>172.16.146.254</t>
-  </si>
-  <si>
-    <t>CAM-Semarang-1</t>
-  </si>
-  <si>
-    <t>172.16.147.254</t>
-  </si>
-  <si>
-    <t>RAS-Semarang-2</t>
-  </si>
-  <si>
-    <t>172.16.145.254</t>
-  </si>
-  <si>
-    <t>CAM-Yogya</t>
-  </si>
-  <si>
-    <t>172.16.152.254</t>
-  </si>
-  <si>
-    <t>BM-Surabaya</t>
-  </si>
-  <si>
-    <t>172.16.199.254</t>
-  </si>
-  <si>
-    <t>CAM-Pasirkaliki</t>
-  </si>
-  <si>
-    <t>172.16.197.254</t>
-  </si>
-  <si>
-    <t>CAM-Sukawarna</t>
-  </si>
-  <si>
-    <t>172.16.198.254</t>
-  </si>
-  <si>
-    <t>CAM-IMG_HO</t>
-  </si>
-  <si>
-    <t>172.16.150.254</t>
-  </si>
-  <si>
-    <t>Pekanbaru-2</t>
+    <t>GoogleDNS</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1391,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1402,253 +1270,116 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="5">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="5">
-        <v>50</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5">
-        <v>50</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5">
-        <v>50</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
